--- a/Supporting Data/Models Results Summary.xlsx
+++ b/Supporting Data/Models Results Summary.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GCD_BugFlowExperiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\Supporting Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="5400" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="5400" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Validation_Results" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Models_Comparison" sheetId="2" r:id="rId2"/>
     <sheet name="Slope_Sat-Sun_Week_Model" sheetId="3" r:id="rId3"/>
     <sheet name="GET days" sheetId="4" r:id="rId4"/>
-    <sheet name="Market Price" sheetId="5" r:id="rId5"/>
+    <sheet name="Market Price_Summary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="121">
   <si>
     <t>June 2018</t>
   </si>
@@ -1046,6 +1046,12 @@
   </si>
   <si>
     <t>case12</t>
+  </si>
+  <si>
+    <t>Nu_SteadyDays</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1147,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1481,6 +1493,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,15 +1508,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4156,16 +4171,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
@@ -4188,16 +4203,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>96</v>
       </c>
       <c r="E5" s="37" t="s">
@@ -4208,12 +4223,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="36">
         <v>1</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="37" t="s">
         <v>45</v>
       </c>
@@ -4222,12 +4237,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="36">
         <v>1</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="37" t="s">
         <v>50</v>
       </c>
@@ -4236,12 +4251,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="36">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="37" t="s">
         <v>51</v>
       </c>
@@ -4250,12 +4265,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="35">
         <v>1</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="53" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="37" t="s">
@@ -4266,12 +4281,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="35">
         <v>0</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="37" t="s">
         <v>45</v>
       </c>
@@ -4280,12 +4295,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="35">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="37" t="s">
         <v>50</v>
       </c>
@@ -4294,12 +4309,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="35">
         <v>0</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="37" t="s">
         <v>51</v>
       </c>
@@ -4308,16 +4323,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="35">
         <v>1</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>96</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -4328,12 +4343,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="35">
         <v>1</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="37" t="s">
         <v>45</v>
       </c>
@@ -4342,12 +4357,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="35">
         <v>1</v>
       </c>
-      <c r="D15" s="52"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="37" t="s">
         <v>50</v>
       </c>
@@ -4356,12 +4371,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="35">
         <v>1</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="37" t="s">
         <v>51</v>
       </c>
@@ -4370,12 +4385,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="35">
         <v>1</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -4386,12 +4401,12 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="35">
         <v>1</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="37" t="s">
         <v>45</v>
       </c>
@@ -4400,12 +4415,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="35">
         <v>1</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="37" t="s">
         <v>50</v>
       </c>
@@ -4414,12 +4429,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="35">
         <v>0</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="37" t="s">
         <v>51</v>
       </c>
@@ -4428,16 +4443,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="35">
         <v>2</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="53" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="37" t="s">
@@ -4448,12 +4463,12 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="35">
         <v>2</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="37" t="s">
         <v>45</v>
       </c>
@@ -4462,12 +4477,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="35">
         <v>1</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="37" t="s">
         <v>50</v>
       </c>
@@ -4476,12 +4491,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="35">
         <v>1</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="37" t="s">
         <v>51</v>
       </c>
@@ -4490,12 +4505,12 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="35">
         <v>1</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="37" t="s">
@@ -4506,12 +4521,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="35">
         <v>1</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="37" t="s">
         <v>45</v>
       </c>
@@ -4520,12 +4535,12 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="35">
         <v>1</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="37" t="s">
         <v>50</v>
       </c>
@@ -4534,12 +4549,12 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="35">
         <v>1</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="37" t="s">
         <v>51</v>
       </c>
@@ -4548,16 +4563,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="35">
         <v>2</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="53" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="37" t="s">
@@ -4568,12 +4583,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="35">
         <v>1</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="37" t="s">
         <v>45</v>
       </c>
@@ -4582,12 +4597,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="35">
         <v>1</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="37" t="s">
         <v>50</v>
       </c>
@@ -4596,12 +4611,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="35">
         <v>1</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="37" t="s">
         <v>51</v>
       </c>
@@ -4610,12 +4625,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="35">
         <v>1</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="53" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="37" t="s">
@@ -4626,12 +4641,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="35">
         <v>1</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="37" t="s">
         <v>45</v>
       </c>
@@ -4640,12 +4655,12 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="35">
         <v>1</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="37" t="s">
         <v>50</v>
       </c>
@@ -4654,12 +4669,12 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="35">
         <v>1</v>
       </c>
-      <c r="D36" s="52"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="37" t="s">
         <v>51</v>
       </c>
@@ -4669,12 +4684,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D12"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="D29:D32"/>
@@ -4687,6 +4696,12 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D28"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4696,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,6 +5006,12 @@
       <c r="D31" t="s">
         <v>102</v>
       </c>
+      <c r="I31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5005,8 +5026,14 @@
       <c r="D32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -5014,17 +5041,28 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>18.903673196429899</v>
+        <f>I33/1000000</f>
+        <v>17.220951141591531</v>
       </c>
       <c r="D33">
-        <v>21.822593000848901</v>
-      </c>
-      <c r="F33" s="38">
+        <f>J33/1000000</f>
+        <v>19.868867556941705</v>
+      </c>
+      <c r="F33" s="56">
         <f>D33</f>
-        <v>21.822593000848901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19.868867556941705</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="58">
+        <v>17220951.14159153</v>
+      </c>
+      <c r="J33" s="58">
+        <v>19868867.556941707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -5032,14 +5070,25 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>18.9284254167322</v>
+        <f t="shared" ref="C34:D44" si="0">I34/1000000</f>
+        <v>17.24215283981605</v>
       </c>
       <c r="D34">
-        <v>21.776060984555201</v>
-      </c>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>19.821748757333779</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="H34" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="58">
+        <v>17242152.839816049</v>
+      </c>
+      <c r="J34" s="58">
+        <v>19821748.757333778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -5047,15 +5096,26 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>18.933059698084602</v>
+        <f t="shared" si="0"/>
+        <v>17.242913099248522</v>
       </c>
       <c r="D35">
-        <v>21.725297788979798</v>
-      </c>
-      <c r="F35" s="38"/>
+        <f t="shared" si="0"/>
+        <v>19.770076651992557</v>
+      </c>
+      <c r="F35" s="56"/>
       <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="58">
+        <v>17242913.099248521</v>
+      </c>
+      <c r="J35" s="58">
+        <v>19770076.651992556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -5063,18 +5123,29 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>18.9476267076822</v>
+        <f t="shared" si="0"/>
+        <v>17.248617787772414</v>
       </c>
       <c r="D36">
-        <v>21.640051438603201</v>
-      </c>
-      <c r="F36" s="38">
+        <f t="shared" si="0"/>
+        <v>19.682046102729462</v>
+      </c>
+      <c r="F36" s="56">
         <f>$D$33-D36</f>
-        <v>0.1825415622456994</v>
+        <v>0.18682145421224305</v>
       </c>
       <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="58">
+        <v>17248617.787772413</v>
+      </c>
+      <c r="J36" s="58">
+        <v>19682046.102729462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -5082,18 +5153,29 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>18.806695788443701</v>
+        <f t="shared" si="0"/>
+        <v>17.116889998463726</v>
       </c>
       <c r="D37">
-        <v>21.428429479233298</v>
-      </c>
-      <c r="F37" s="38">
-        <f t="shared" ref="F37:F44" si="0">$D$33-D37</f>
-        <v>0.39416352161560297</v>
+        <f t="shared" si="0"/>
+        <v>19.489284392559117</v>
+      </c>
+      <c r="F37" s="56">
+        <f t="shared" ref="F37:F44" si="1">$D$33-D37</f>
+        <v>0.37958316438258777</v>
       </c>
       <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="58">
+        <v>17116889.998463728</v>
+      </c>
+      <c r="J37" s="58">
+        <v>19489284.392559119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -5101,18 +5183,29 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>18.721007544644198</v>
+        <f t="shared" si="0"/>
+        <v>17.142992893502459</v>
       </c>
       <c r="D38">
-        <v>21.301364690788198</v>
-      </c>
-      <c r="F38" s="38">
         <f t="shared" si="0"/>
-        <v>0.52122831006070314</v>
+        <v>19.499689625012437</v>
+      </c>
+      <c r="F38" s="56">
+        <f t="shared" si="1"/>
+        <v>0.36917793192926851</v>
       </c>
       <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="58">
+        <v>17142992.893502459</v>
+      </c>
+      <c r="J38" s="58">
+        <v>19499689.625012435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -5120,18 +5213,29 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>18.687180133691601</v>
+        <f t="shared" si="0"/>
+        <v>17.112133981235878</v>
       </c>
       <c r="D39">
-        <v>21.259552732962899</v>
-      </c>
-      <c r="F39" s="38">
         <f t="shared" si="0"/>
-        <v>0.56304026788600225</v>
+        <v>19.461653921994529</v>
+      </c>
+      <c r="F39" s="56">
+        <f t="shared" si="1"/>
+        <v>0.40721363494717622</v>
       </c>
       <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="58">
+        <v>17112133.981235877</v>
+      </c>
+      <c r="J39" s="58">
+        <v>19461653.92199453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -5139,15 +5243,26 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>18.650850873964899</v>
+        <f t="shared" si="0"/>
+        <v>17.079026319549943</v>
       </c>
       <c r="D40">
-        <v>21.215238926363401</v>
-      </c>
-      <c r="F40" s="38"/>
+        <f t="shared" si="0"/>
+        <v>19.421369469557291</v>
+      </c>
+      <c r="F40" s="56"/>
       <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="58">
+        <v>17079026.319549944</v>
+      </c>
+      <c r="J40" s="58">
+        <v>19421369.469557293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -5155,18 +5270,29 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>18.431676843718101</v>
+        <f t="shared" si="0"/>
+        <v>16.879756769829942</v>
       </c>
       <c r="D41">
-        <v>20.956142161753199</v>
-      </c>
-      <c r="F41" s="38">
         <f t="shared" si="0"/>
-        <v>0.86645083909570175</v>
+        <v>19.18621596608072</v>
+      </c>
+      <c r="F41" s="56">
+        <f t="shared" si="1"/>
+        <v>0.68265159086098492</v>
       </c>
       <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="58">
+        <v>16879756.769829944</v>
+      </c>
+      <c r="J41" s="58">
+        <v>19186215.966080721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -5174,15 +5300,26 @@
         <v>20</v>
       </c>
       <c r="C42">
-        <v>18.149956594116599</v>
+        <f t="shared" si="0"/>
+        <v>16.624268484626054</v>
       </c>
       <c r="D42">
-        <v>20.634499177788001</v>
-      </c>
-      <c r="F42" s="38"/>
+        <f t="shared" si="0"/>
+        <v>18.894843727120271</v>
+      </c>
+      <c r="F42" s="56"/>
       <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="58">
+        <v>16624268.484626055</v>
+      </c>
+      <c r="J42" s="58">
+        <v>18894843.727120273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -5190,15 +5327,26 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <v>17.805690125160101</v>
+        <f t="shared" si="0"/>
+        <v>16.312561463938312</v>
       </c>
       <c r="D43">
-        <v>20.250309974468102</v>
-      </c>
-      <c r="F43" s="38"/>
+        <f t="shared" si="0"/>
+        <v>18.547252752675963</v>
+      </c>
+      <c r="F43" s="56"/>
       <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="58">
+        <v>16312561.463938313</v>
+      </c>
+      <c r="J43" s="58">
+        <v>18547252.752675962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -5206,25 +5354,36 @@
         <v>31</v>
       </c>
       <c r="C44">
-        <v>17.310009352864103</v>
+        <f t="shared" si="0"/>
+        <v>15.864304308274296</v>
       </c>
       <c r="D44">
-        <v>19.706721920935703</v>
+        <f t="shared" si="0"/>
+        <v>18.05593485250407</v>
       </c>
       <c r="E44" s="38"/>
-      <c r="F44" s="38">
-        <f t="shared" si="0"/>
-        <v>2.1158710799131981</v>
+      <c r="F44" s="56">
+        <f t="shared" si="1"/>
+        <v>1.8129327044376353</v>
       </c>
       <c r="G44" s="38"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="58">
+        <v>15864304.308274295</v>
+      </c>
+      <c r="J44" s="58">
+        <v>18055934.852504071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" s="38"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E47" s="38"/>
       <c r="G47" s="38"/>
     </row>
